--- a/01_Documents/DB.xlsx
+++ b/01_Documents/DB.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="REF" sheetId="2" state="hidden" r:id="rId1"/>
     <sheet name="Tables" sheetId="1" r:id="rId2"/>
     <sheet name="Views" sheetId="3" r:id="rId3"/>
+    <sheet name="WorkflowTables" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1226" uniqueCount="275">
   <si>
     <t>SEQ</t>
   </si>
@@ -705,6 +706,398 @@
   </si>
   <si>
     <t>内容（JSON）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WF_ENT_NodeRule</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>规则类型（0:找人规则;1:入口规则;2:出口规则;3:导向规则）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Script</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>规则内容（脚本）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>max</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WorkflowID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>规则:找人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>规则:输入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>规则:输出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>规则:节点状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回调:找人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WF_DEF_Workflows.ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WF_DEF_Nodes.ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WF_DEF_Nodes.ID 父节点ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Flag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>脚本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WebAPI Url</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回调:输出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回调:进入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回调:通知</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作流编码(发起时需要)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WF_HIS_Workflows</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WF_HIS_Nodes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>归档表：字段同WF_RT_Workflows</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>归档表：字段同WF_RT_Nodes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WF_RT_Workflows.ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>轮番号（表示当前节点处于第几轮操作）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WF_HIS_Details</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WF_RT_Details.ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DetailId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WF_RT_Nodes.ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数(Json)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BizCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标识（99:用户自定义脚本）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动作(1:发起;2:通过;3:拒绝;4:中止)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>节点状态(-1:禁用;0:初始;1:处理中;2:通过;3:拒绝;4:错误)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>处理状态(0:初始;1:处理中;2:通过;3:拒绝;4:错误)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CB_Created</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CB_Finished</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CB_Error</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WorkflowID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WF_DEF_Workflows</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WF_DEF_Nodes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RL_Approvers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NodeID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Script</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Url</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ParentID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SEQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UserID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Comment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Parameter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DetailID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Action</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RL_Input</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RL_Output</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RL_Status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CB_Approvers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CB_Input</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CB_Output</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CB_Notify</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IsDeleted</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CreatedBy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CreatedOn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LastModifiedBy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LastModifiedOn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WF_DEF_Rules</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CreatedBy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CreatedOn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LastModifiedBy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LastModifiedOn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WF_DEF_Callbacks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WorkflowID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WF_DEF_Mappings</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WF_RT_Workflows</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BizCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OwnerID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProcStatus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TaskID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WF_RT_Nodes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RoundNO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WF_RT_Details</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enabled</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WF_RT_Tasks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NodeID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>InstID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>规则类型（0:找人规则;1:输入规则;2:输出规则;3:状态规则）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>节点类型(0:开始;1:普通;2:控制;9:结束)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -823,7 +1216,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -876,8 +1269,42 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -897,22 +1324,6 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1286,11 +1697,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J120"/>
+  <dimension ref="A1:J132"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B44" sqref="B44:B56"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D63" sqref="D63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1308,20 +1719,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="21" t="s">
+      <c r="B1" s="40"/>
+      <c r="C1" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
@@ -1356,10 +1767,10 @@
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="23">
+      <c r="A3" s="37">
         <v>1</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="38" t="s">
         <v>99</v>
       </c>
       <c r="C3" s="3">
@@ -1384,8 +1795,8 @@
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="23"/>
-      <c r="B4" s="24"/>
+      <c r="A4" s="37"/>
+      <c r="B4" s="38"/>
       <c r="C4" s="3">
         <v>2</v>
       </c>
@@ -1408,8 +1819,8 @@
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="23"/>
-      <c r="B5" s="24"/>
+      <c r="A5" s="37"/>
+      <c r="B5" s="38"/>
       <c r="C5" s="3">
         <v>3</v>
       </c>
@@ -1432,8 +1843,8 @@
       </c>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="23"/>
-      <c r="B6" s="24"/>
+      <c r="A6" s="37"/>
+      <c r="B6" s="38"/>
       <c r="C6" s="3">
         <v>4</v>
       </c>
@@ -1458,8 +1869,8 @@
       </c>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="23"/>
-      <c r="B7" s="24"/>
+      <c r="A7" s="37"/>
+      <c r="B7" s="38"/>
       <c r="C7" s="3">
         <v>5</v>
       </c>
@@ -1482,8 +1893,8 @@
       </c>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="23"/>
-      <c r="B8" s="24"/>
+      <c r="A8" s="37"/>
+      <c r="B8" s="38"/>
       <c r="C8" s="3">
         <v>6</v>
       </c>
@@ -1508,8 +1919,8 @@
       </c>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="23"/>
-      <c r="B9" s="24"/>
+      <c r="A9" s="37"/>
+      <c r="B9" s="38"/>
       <c r="C9" s="3">
         <v>7</v>
       </c>
@@ -1534,8 +1945,8 @@
       </c>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="23"/>
-      <c r="B10" s="24"/>
+      <c r="A10" s="37"/>
+      <c r="B10" s="38"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
@@ -1546,8 +1957,8 @@
       <c r="J10" s="3"/>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="23"/>
-      <c r="B11" s="24"/>
+      <c r="A11" s="37"/>
+      <c r="B11" s="38"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3" t="s">
         <v>114</v>
@@ -1570,8 +1981,8 @@
       </c>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="23"/>
-      <c r="B12" s="24"/>
+      <c r="A12" s="37"/>
+      <c r="B12" s="38"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3" t="s">
         <v>115</v>
@@ -1606,10 +2017,10 @@
       <c r="J13" s="3"/>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="19">
+      <c r="A14" s="34">
         <v>2</v>
       </c>
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="33" t="s">
         <v>5</v>
       </c>
       <c r="C14" s="3">
@@ -1632,8 +2043,8 @@
       <c r="J14" s="3"/>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="19"/>
-      <c r="B15" s="20"/>
+      <c r="A15" s="34"/>
+      <c r="B15" s="33"/>
       <c r="C15" s="3">
         <v>2</v>
       </c>
@@ -1656,8 +2067,8 @@
       <c r="J15" s="3"/>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="19"/>
-      <c r="B16" s="20"/>
+      <c r="A16" s="34"/>
+      <c r="B16" s="33"/>
       <c r="C16" s="3">
         <v>3</v>
       </c>
@@ -1680,8 +2091,8 @@
       <c r="J16" s="3"/>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="19"/>
-      <c r="B17" s="20"/>
+      <c r="A17" s="34"/>
+      <c r="B17" s="33"/>
       <c r="C17" s="3">
         <v>4</v>
       </c>
@@ -1702,8 +2113,8 @@
       <c r="J17" s="3"/>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="19"/>
-      <c r="B18" s="20"/>
+      <c r="A18" s="34"/>
+      <c r="B18" s="33"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
@@ -1714,8 +2125,8 @@
       <c r="J18" s="3"/>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="19"/>
-      <c r="B19" s="20"/>
+      <c r="A19" s="34"/>
+      <c r="B19" s="33"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3" t="s">
         <v>47</v>
@@ -1738,8 +2149,8 @@
       </c>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="19"/>
-      <c r="B20" s="20"/>
+      <c r="A20" s="34"/>
+      <c r="B20" s="33"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3" t="s">
         <v>38</v>
@@ -1762,8 +2173,8 @@
       </c>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="19"/>
-      <c r="B21" s="20"/>
+      <c r="A21" s="34"/>
+      <c r="B21" s="33"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3" t="s">
         <v>39</v>
@@ -1786,8 +2197,8 @@
       </c>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="19"/>
-      <c r="B22" s="20"/>
+      <c r="A22" s="34"/>
+      <c r="B22" s="33"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3" t="s">
         <v>40</v>
@@ -1810,8 +2221,8 @@
       </c>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="19"/>
-      <c r="B23" s="20"/>
+      <c r="A23" s="34"/>
+      <c r="B23" s="33"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3" t="s">
         <v>41</v>
@@ -1834,10 +2245,10 @@
       </c>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="19">
+      <c r="A24" s="34">
         <v>3</v>
       </c>
-      <c r="B24" s="20" t="s">
+      <c r="B24" s="33" t="s">
         <v>35</v>
       </c>
       <c r="C24" s="3">
@@ -1860,8 +2271,8 @@
       <c r="J24" s="3"/>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="19"/>
-      <c r="B25" s="20"/>
+      <c r="A25" s="34"/>
+      <c r="B25" s="33"/>
       <c r="C25" s="3">
         <v>2</v>
       </c>
@@ -1884,8 +2295,8 @@
       </c>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="19"/>
-      <c r="B26" s="20"/>
+      <c r="A26" s="34"/>
+      <c r="B26" s="33"/>
       <c r="C26" s="3">
         <v>3</v>
       </c>
@@ -1908,8 +2319,8 @@
       </c>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="19"/>
-      <c r="B27" s="20"/>
+      <c r="A27" s="34"/>
+      <c r="B27" s="33"/>
       <c r="C27" s="3">
         <v>4</v>
       </c>
@@ -1932,8 +2343,8 @@
       <c r="J27" s="3"/>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="19"/>
-      <c r="B28" s="20"/>
+      <c r="A28" s="34"/>
+      <c r="B28" s="33"/>
       <c r="C28" s="3">
         <v>5</v>
       </c>
@@ -1956,8 +2367,8 @@
       <c r="J28" s="3"/>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="19"/>
-      <c r="B29" s="20"/>
+      <c r="A29" s="34"/>
+      <c r="B29" s="33"/>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
@@ -1968,8 +2379,8 @@
       <c r="J29" s="3"/>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="19"/>
-      <c r="B30" s="20"/>
+      <c r="A30" s="34"/>
+      <c r="B30" s="33"/>
       <c r="C30" s="3"/>
       <c r="D30" s="3" t="s">
         <v>47</v>
@@ -1992,8 +2403,8 @@
       </c>
     </row>
     <row r="31" spans="1:10">
-      <c r="A31" s="19"/>
-      <c r="B31" s="20"/>
+      <c r="A31" s="34"/>
+      <c r="B31" s="33"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3" t="s">
         <v>38</v>
@@ -2016,8 +2427,8 @@
       </c>
     </row>
     <row r="32" spans="1:10">
-      <c r="A32" s="19"/>
-      <c r="B32" s="20"/>
+      <c r="A32" s="34"/>
+      <c r="B32" s="33"/>
       <c r="C32" s="3"/>
       <c r="D32" s="3" t="s">
         <v>39</v>
@@ -2040,8 +2451,8 @@
       </c>
     </row>
     <row r="33" spans="1:10">
-      <c r="A33" s="19"/>
-      <c r="B33" s="20"/>
+      <c r="A33" s="34"/>
+      <c r="B33" s="33"/>
       <c r="C33" s="3"/>
       <c r="D33" s="3" t="s">
         <v>40</v>
@@ -2064,8 +2475,8 @@
       </c>
     </row>
     <row r="34" spans="1:10">
-      <c r="A34" s="19"/>
-      <c r="B34" s="20"/>
+      <c r="A34" s="34"/>
+      <c r="B34" s="33"/>
       <c r="C34" s="3"/>
       <c r="D34" s="3" t="s">
         <v>41</v>
@@ -2088,10 +2499,10 @@
       </c>
     </row>
     <row r="35" spans="1:10">
-      <c r="A35" s="19">
+      <c r="A35" s="34">
         <v>4</v>
       </c>
-      <c r="B35" s="20" t="s">
+      <c r="B35" s="33" t="s">
         <v>84</v>
       </c>
       <c r="C35" s="3">
@@ -2114,8 +2525,8 @@
       <c r="J35" s="3"/>
     </row>
     <row r="36" spans="1:10">
-      <c r="A36" s="19"/>
-      <c r="B36" s="20"/>
+      <c r="A36" s="34"/>
+      <c r="B36" s="33"/>
       <c r="C36" s="3">
         <v>2</v>
       </c>
@@ -2138,8 +2549,8 @@
       </c>
     </row>
     <row r="37" spans="1:10">
-      <c r="A37" s="19"/>
-      <c r="B37" s="20"/>
+      <c r="A37" s="34"/>
+      <c r="B37" s="33"/>
       <c r="C37" s="3">
         <v>3</v>
       </c>
@@ -2162,8 +2573,8 @@
       </c>
     </row>
     <row r="38" spans="1:10">
-      <c r="A38" s="19"/>
-      <c r="B38" s="20"/>
+      <c r="A38" s="34"/>
+      <c r="B38" s="33"/>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
@@ -2174,8 +2585,8 @@
       <c r="J38" s="3"/>
     </row>
     <row r="39" spans="1:10">
-      <c r="A39" s="19"/>
-      <c r="B39" s="20"/>
+      <c r="A39" s="34"/>
+      <c r="B39" s="33"/>
       <c r="C39" s="3"/>
       <c r="D39" s="3" t="s">
         <v>86</v>
@@ -2198,8 +2609,8 @@
       </c>
     </row>
     <row r="40" spans="1:10">
-      <c r="A40" s="19"/>
-      <c r="B40" s="20"/>
+      <c r="A40" s="34"/>
+      <c r="B40" s="33"/>
       <c r="C40" s="3"/>
       <c r="D40" s="3" t="s">
         <v>87</v>
@@ -2222,8 +2633,8 @@
       </c>
     </row>
     <row r="41" spans="1:10">
-      <c r="A41" s="19"/>
-      <c r="B41" s="20"/>
+      <c r="A41" s="34"/>
+      <c r="B41" s="33"/>
       <c r="C41" s="3"/>
       <c r="D41" s="3" t="s">
         <v>88</v>
@@ -2246,8 +2657,8 @@
       </c>
     </row>
     <row r="42" spans="1:10">
-      <c r="A42" s="19"/>
-      <c r="B42" s="20"/>
+      <c r="A42" s="34"/>
+      <c r="B42" s="33"/>
       <c r="C42" s="3"/>
       <c r="D42" s="3" t="s">
         <v>89</v>
@@ -2270,8 +2681,8 @@
       </c>
     </row>
     <row r="43" spans="1:10">
-      <c r="A43" s="19"/>
-      <c r="B43" s="20"/>
+      <c r="A43" s="34"/>
+      <c r="B43" s="33"/>
       <c r="C43" s="3"/>
       <c r="D43" s="3" t="s">
         <v>90</v>
@@ -2294,10 +2705,10 @@
       </c>
     </row>
     <row r="44" spans="1:10">
-      <c r="A44" s="19">
+      <c r="A44" s="34">
         <v>5</v>
       </c>
-      <c r="B44" s="20" t="s">
+      <c r="B44" s="33" t="s">
         <v>71</v>
       </c>
       <c r="C44" s="3">
@@ -2320,8 +2731,8 @@
       <c r="J44" s="3"/>
     </row>
     <row r="45" spans="1:10">
-      <c r="A45" s="19"/>
-      <c r="B45" s="20"/>
+      <c r="A45" s="34"/>
+      <c r="B45" s="33"/>
       <c r="C45" s="3">
         <v>2</v>
       </c>
@@ -2344,8 +2755,8 @@
       </c>
     </row>
     <row r="46" spans="1:10">
-      <c r="A46" s="19"/>
-      <c r="B46" s="20"/>
+      <c r="A46" s="34"/>
+      <c r="B46" s="33"/>
       <c r="C46" s="3">
         <v>3</v>
       </c>
@@ -2368,8 +2779,8 @@
       </c>
     </row>
     <row r="47" spans="1:10">
-      <c r="A47" s="19"/>
-      <c r="B47" s="20"/>
+      <c r="A47" s="34"/>
+      <c r="B47" s="33"/>
       <c r="C47" s="3">
         <v>4</v>
       </c>
@@ -2392,8 +2803,8 @@
       </c>
     </row>
     <row r="48" spans="1:10">
-      <c r="A48" s="19"/>
-      <c r="B48" s="20"/>
+      <c r="A48" s="34"/>
+      <c r="B48" s="33"/>
       <c r="C48" s="3">
         <v>5</v>
       </c>
@@ -2416,8 +2827,8 @@
       <c r="J48" s="4"/>
     </row>
     <row r="49" spans="1:10">
-      <c r="A49" s="19"/>
-      <c r="B49" s="20"/>
+      <c r="A49" s="34"/>
+      <c r="B49" s="33"/>
       <c r="C49" s="3">
         <v>6</v>
       </c>
@@ -2440,8 +2851,8 @@
       <c r="J49" s="4"/>
     </row>
     <row r="50" spans="1:10">
-      <c r="A50" s="19"/>
-      <c r="B50" s="20"/>
+      <c r="A50" s="34"/>
+      <c r="B50" s="33"/>
       <c r="C50" s="3">
         <v>7</v>
       </c>
@@ -2466,8 +2877,8 @@
       </c>
     </row>
     <row r="51" spans="1:10">
-      <c r="A51" s="19"/>
-      <c r="B51" s="20"/>
+      <c r="A51" s="34"/>
+      <c r="B51" s="33"/>
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
       <c r="E51" s="3"/>
@@ -2478,8 +2889,8 @@
       <c r="J51" s="3"/>
     </row>
     <row r="52" spans="1:10">
-      <c r="A52" s="19"/>
-      <c r="B52" s="20"/>
+      <c r="A52" s="34"/>
+      <c r="B52" s="33"/>
       <c r="C52" s="3"/>
       <c r="D52" s="3" t="s">
         <v>175</v>
@@ -2502,8 +2913,8 @@
       </c>
     </row>
     <row r="53" spans="1:10">
-      <c r="A53" s="19"/>
-      <c r="B53" s="20"/>
+      <c r="A53" s="34"/>
+      <c r="B53" s="33"/>
       <c r="C53" s="3"/>
       <c r="D53" s="3" t="s">
         <v>80</v>
@@ -2526,8 +2937,8 @@
       </c>
     </row>
     <row r="54" spans="1:10">
-      <c r="A54" s="19"/>
-      <c r="B54" s="20"/>
+      <c r="A54" s="34"/>
+      <c r="B54" s="33"/>
       <c r="C54" s="3"/>
       <c r="D54" s="3" t="s">
         <v>81</v>
@@ -2550,8 +2961,8 @@
       </c>
     </row>
     <row r="55" spans="1:10">
-      <c r="A55" s="19"/>
-      <c r="B55" s="20"/>
+      <c r="A55" s="34"/>
+      <c r="B55" s="33"/>
       <c r="C55" s="3"/>
       <c r="D55" s="3" t="s">
         <v>82</v>
@@ -2574,8 +2985,8 @@
       </c>
     </row>
     <row r="56" spans="1:10">
-      <c r="A56" s="19"/>
-      <c r="B56" s="20"/>
+      <c r="A56" s="34"/>
+      <c r="B56" s="33"/>
       <c r="C56" s="3"/>
       <c r="D56" s="3" t="s">
         <v>83</v>
@@ -2598,8 +3009,8 @@
       </c>
     </row>
     <row r="57" spans="1:10">
-      <c r="A57" s="28"/>
-      <c r="B57" s="29" t="s">
+      <c r="A57" s="20"/>
+      <c r="B57" s="21" t="s">
         <v>164</v>
       </c>
       <c r="C57" s="3">
@@ -2622,81 +3033,81 @@
       <c r="J57" s="3"/>
     </row>
     <row r="58" spans="1:10">
-      <c r="A58" s="28"/>
-      <c r="B58" s="29"/>
-      <c r="C58" s="30">
+      <c r="A58" s="20"/>
+      <c r="B58" s="21"/>
+      <c r="C58" s="22">
         <v>2</v>
       </c>
-      <c r="D58" s="31" t="s">
+      <c r="D58" s="23" t="s">
         <v>166</v>
       </c>
-      <c r="E58" s="30" t="s">
+      <c r="E58" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="F58" s="30"/>
-      <c r="G58" s="28" t="s">
+      <c r="F58" s="22"/>
+      <c r="G58" s="20" t="s">
         <v>167</v>
       </c>
-      <c r="H58" s="28" t="s">
+      <c r="H58" s="20" t="s">
         <v>167</v>
       </c>
-      <c r="I58" s="30"/>
-      <c r="J58" s="31" t="s">
+      <c r="I58" s="22"/>
+      <c r="J58" s="23" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="59" spans="1:10">
-      <c r="A59" s="28"/>
-      <c r="B59" s="29"/>
-      <c r="C59" s="30">
+      <c r="A59" s="20"/>
+      <c r="B59" s="21"/>
+      <c r="C59" s="22">
         <v>3</v>
       </c>
-      <c r="D59" s="31" t="s">
+      <c r="D59" s="23" t="s">
         <v>165</v>
       </c>
       <c r="E59" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F59" s="30"/>
-      <c r="G59" s="28" t="s">
+      <c r="F59" s="22"/>
+      <c r="G59" s="20" t="s">
         <v>167</v>
       </c>
-      <c r="H59" s="28" t="s">
+      <c r="H59" s="20" t="s">
         <v>167</v>
       </c>
-      <c r="I59" s="30"/>
-      <c r="J59" s="31" t="s">
+      <c r="I59" s="22"/>
+      <c r="J59" s="23" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="60" spans="1:10" ht="67.5">
-      <c r="A60" s="28"/>
-      <c r="B60" s="29"/>
-      <c r="C60" s="34">
+      <c r="A60" s="20"/>
+      <c r="B60" s="21"/>
+      <c r="C60" s="26">
         <v>4</v>
       </c>
-      <c r="D60" s="31" t="s">
+      <c r="D60" s="23" t="s">
         <v>172</v>
       </c>
-      <c r="E60" s="32" t="s">
+      <c r="E60" s="24" t="s">
         <v>173</v>
       </c>
-      <c r="F60" s="30"/>
-      <c r="G60" s="28" t="s">
+      <c r="F60" s="22"/>
+      <c r="G60" s="20" t="s">
         <v>167</v>
       </c>
-      <c r="H60" s="28" t="s">
+      <c r="H60" s="20" t="s">
         <v>167</v>
       </c>
-      <c r="I60" s="30"/>
-      <c r="J60" s="33" t="s">
+      <c r="I60" s="22"/>
+      <c r="J60" s="25" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="61" spans="1:10">
-      <c r="A61" s="28"/>
-      <c r="B61" s="29"/>
-      <c r="C61" s="34">
+      <c r="A61" s="20"/>
+      <c r="B61" s="21"/>
+      <c r="C61" s="26">
         <v>5</v>
       </c>
       <c r="D61" s="3" t="s">
@@ -2718,9 +3129,9 @@
       <c r="J61" s="4"/>
     </row>
     <row r="62" spans="1:10">
-      <c r="A62" s="28"/>
-      <c r="B62" s="29"/>
-      <c r="C62" s="34">
+      <c r="A62" s="20"/>
+      <c r="B62" s="21"/>
+      <c r="C62" s="26">
         <v>6</v>
       </c>
       <c r="D62" s="3" t="s">
@@ -2742,9 +3153,9 @@
       <c r="J62" s="4"/>
     </row>
     <row r="63" spans="1:10">
-      <c r="A63" s="28"/>
-      <c r="B63" s="29"/>
-      <c r="C63" s="34">
+      <c r="A63" s="20"/>
+      <c r="B63" s="21"/>
+      <c r="C63" s="26">
         <v>7</v>
       </c>
       <c r="D63" s="4" t="s">
@@ -2768,33 +3179,33 @@
       </c>
     </row>
     <row r="64" spans="1:10">
-      <c r="A64" s="28"/>
-      <c r="B64" s="29"/>
-      <c r="C64" s="34"/>
-      <c r="D64" s="34"/>
-      <c r="E64" s="34"/>
-      <c r="F64" s="30"/>
-      <c r="G64" s="28"/>
-      <c r="H64" s="28"/>
-      <c r="I64" s="30"/>
-      <c r="J64" s="33"/>
+      <c r="A64" s="20"/>
+      <c r="B64" s="21"/>
+      <c r="C64" s="26"/>
+      <c r="D64" s="26"/>
+      <c r="E64" s="26"/>
+      <c r="F64" s="22"/>
+      <c r="G64" s="20"/>
+      <c r="H64" s="20"/>
+      <c r="I64" s="22"/>
+      <c r="J64" s="25"/>
     </row>
     <row r="65" spans="1:10">
-      <c r="A65" s="28"/>
-      <c r="B65" s="29"/>
-      <c r="C65" s="30"/>
-      <c r="D65" s="30"/>
-      <c r="E65" s="30"/>
-      <c r="F65" s="30"/>
-      <c r="G65" s="28"/>
-      <c r="H65" s="28"/>
-      <c r="I65" s="30"/>
-      <c r="J65" s="30"/>
+      <c r="A65" s="20"/>
+      <c r="B65" s="21"/>
+      <c r="C65" s="22"/>
+      <c r="D65" s="22"/>
+      <c r="E65" s="22"/>
+      <c r="F65" s="22"/>
+      <c r="G65" s="20"/>
+      <c r="H65" s="20"/>
+      <c r="I65" s="22"/>
+      <c r="J65" s="22"/>
     </row>
     <row r="66" spans="1:10">
-      <c r="A66" s="28"/>
-      <c r="B66" s="29"/>
-      <c r="C66" s="30"/>
+      <c r="A66" s="20"/>
+      <c r="B66" s="21"/>
+      <c r="C66" s="22"/>
       <c r="D66" s="3" t="s">
         <v>79</v>
       </c>
@@ -2816,9 +3227,9 @@
       </c>
     </row>
     <row r="67" spans="1:10">
-      <c r="A67" s="28"/>
-      <c r="B67" s="29"/>
-      <c r="C67" s="30"/>
+      <c r="A67" s="20"/>
+      <c r="B67" s="21"/>
+      <c r="C67" s="22"/>
       <c r="D67" s="3" t="s">
         <v>80</v>
       </c>
@@ -2840,9 +3251,9 @@
       </c>
     </row>
     <row r="68" spans="1:10">
-      <c r="A68" s="28"/>
-      <c r="B68" s="29"/>
-      <c r="C68" s="30"/>
+      <c r="A68" s="20"/>
+      <c r="B68" s="21"/>
+      <c r="C68" s="22"/>
       <c r="D68" s="3" t="s">
         <v>81</v>
       </c>
@@ -2864,9 +3275,9 @@
       </c>
     </row>
     <row r="69" spans="1:10">
-      <c r="A69" s="28"/>
-      <c r="B69" s="29"/>
-      <c r="C69" s="30"/>
+      <c r="A69" s="20"/>
+      <c r="B69" s="21"/>
+      <c r="C69" s="22"/>
       <c r="D69" s="3" t="s">
         <v>82</v>
       </c>
@@ -2888,9 +3299,9 @@
       </c>
     </row>
     <row r="70" spans="1:10">
-      <c r="A70" s="28"/>
-      <c r="B70" s="29"/>
-      <c r="C70" s="30"/>
+      <c r="A70" s="20"/>
+      <c r="B70" s="21"/>
+      <c r="C70" s="22"/>
       <c r="D70" s="3" t="s">
         <v>83</v>
       </c>
@@ -2912,10 +3323,10 @@
       </c>
     </row>
     <row r="72" spans="1:10">
-      <c r="A72" s="19">
+      <c r="A72" s="34">
         <v>6</v>
       </c>
-      <c r="B72" s="20" t="s">
+      <c r="B72" s="33" t="s">
         <v>149</v>
       </c>
       <c r="C72" s="3">
@@ -2938,8 +3349,8 @@
       <c r="J72" s="3"/>
     </row>
     <row r="73" spans="1:10">
-      <c r="A73" s="19"/>
-      <c r="B73" s="20"/>
+      <c r="A73" s="34"/>
+      <c r="B73" s="33"/>
       <c r="C73" s="3">
         <v>2</v>
       </c>
@@ -2962,8 +3373,8 @@
       </c>
     </row>
     <row r="74" spans="1:10">
-      <c r="A74" s="19"/>
-      <c r="B74" s="20"/>
+      <c r="A74" s="34"/>
+      <c r="B74" s="33"/>
       <c r="C74" s="3">
         <v>3</v>
       </c>
@@ -2988,8 +3399,8 @@
       </c>
     </row>
     <row r="75" spans="1:10">
-      <c r="A75" s="19"/>
-      <c r="B75" s="20"/>
+      <c r="A75" s="34"/>
+      <c r="B75" s="33"/>
       <c r="C75" s="3">
         <v>4</v>
       </c>
@@ -3014,8 +3425,8 @@
       </c>
     </row>
     <row r="76" spans="1:10">
-      <c r="A76" s="19"/>
-      <c r="B76" s="20"/>
+      <c r="A76" s="34"/>
+      <c r="B76" s="33"/>
       <c r="C76" s="3">
         <v>5</v>
       </c>
@@ -3040,8 +3451,8 @@
       </c>
     </row>
     <row r="77" spans="1:10">
-      <c r="A77" s="19"/>
-      <c r="B77" s="20"/>
+      <c r="A77" s="34"/>
+      <c r="B77" s="33"/>
       <c r="C77" s="3"/>
       <c r="D77" s="3"/>
       <c r="E77" s="3"/>
@@ -3052,8 +3463,8 @@
       <c r="J77" s="3"/>
     </row>
     <row r="78" spans="1:10">
-      <c r="A78" s="19"/>
-      <c r="B78" s="20"/>
+      <c r="A78" s="34"/>
+      <c r="B78" s="33"/>
       <c r="C78" s="3"/>
       <c r="D78" s="3" t="s">
         <v>155</v>
@@ -3076,8 +3487,8 @@
       </c>
     </row>
     <row r="79" spans="1:10">
-      <c r="A79" s="19"/>
-      <c r="B79" s="20"/>
+      <c r="A79" s="34"/>
+      <c r="B79" s="33"/>
       <c r="C79" s="3"/>
       <c r="D79" s="3" t="s">
         <v>156</v>
@@ -3098,8 +3509,8 @@
       </c>
     </row>
     <row r="80" spans="1:10">
-      <c r="A80" s="19"/>
-      <c r="B80" s="20"/>
+      <c r="A80" s="34"/>
+      <c r="B80" s="33"/>
       <c r="C80" s="3"/>
       <c r="D80" s="3" t="s">
         <v>157</v>
@@ -3122,8 +3533,8 @@
       </c>
     </row>
     <row r="81" spans="1:10">
-      <c r="A81" s="19"/>
-      <c r="B81" s="20"/>
+      <c r="A81" s="34"/>
+      <c r="B81" s="33"/>
       <c r="C81" s="3"/>
       <c r="D81" s="3" t="s">
         <v>158</v>
@@ -3146,8 +3557,8 @@
       </c>
     </row>
     <row r="82" spans="1:10">
-      <c r="A82" s="19"/>
-      <c r="B82" s="20"/>
+      <c r="A82" s="34"/>
+      <c r="B82" s="33"/>
       <c r="C82" s="3"/>
       <c r="D82" s="3" t="s">
         <v>159</v>
@@ -3170,8 +3581,8 @@
       </c>
     </row>
     <row r="83" spans="1:10">
-      <c r="A83" s="19"/>
-      <c r="B83" s="20"/>
+      <c r="A83" s="34"/>
+      <c r="B83" s="33"/>
       <c r="C83" s="3"/>
       <c r="D83" s="3" t="s">
         <v>160</v>
@@ -3200,22 +3611,22 @@
       <c r="B84" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="C84" s="27" t="s">
+      <c r="C84" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="D84" s="27"/>
-      <c r="E84" s="27"/>
-      <c r="F84" s="27"/>
-      <c r="G84" s="27"/>
-      <c r="H84" s="27"/>
-      <c r="I84" s="27"/>
-      <c r="J84" s="27"/>
+      <c r="D84" s="32"/>
+      <c r="E84" s="32"/>
+      <c r="F84" s="32"/>
+      <c r="G84" s="32"/>
+      <c r="H84" s="32"/>
+      <c r="I84" s="32"/>
+      <c r="J84" s="32"/>
     </row>
     <row r="85" spans="1:10">
-      <c r="A85" s="19">
+      <c r="A85" s="34">
         <v>8</v>
       </c>
-      <c r="B85" s="20" t="s">
+      <c r="B85" s="33" t="s">
         <v>142</v>
       </c>
       <c r="C85" s="3">
@@ -3238,8 +3649,8 @@
       <c r="J85" s="3"/>
     </row>
     <row r="86" spans="1:10">
-      <c r="A86" s="19"/>
-      <c r="B86" s="20"/>
+      <c r="A86" s="34"/>
+      <c r="B86" s="33"/>
       <c r="C86" s="3">
         <v>2</v>
       </c>
@@ -3262,8 +3673,8 @@
       </c>
     </row>
     <row r="87" spans="1:10">
-      <c r="A87" s="19"/>
-      <c r="B87" s="20"/>
+      <c r="A87" s="34"/>
+      <c r="B87" s="33"/>
       <c r="C87" s="3">
         <v>3</v>
       </c>
@@ -3286,8 +3697,8 @@
       </c>
     </row>
     <row r="88" spans="1:10">
-      <c r="A88" s="19"/>
-      <c r="B88" s="20"/>
+      <c r="A88" s="34"/>
+      <c r="B88" s="33"/>
       <c r="C88" s="3">
         <v>4</v>
       </c>
@@ -3310,8 +3721,8 @@
       </c>
     </row>
     <row r="89" spans="1:10">
-      <c r="A89" s="19"/>
-      <c r="B89" s="20"/>
+      <c r="A89" s="34"/>
+      <c r="B89" s="33"/>
       <c r="C89" s="3">
         <v>5</v>
       </c>
@@ -3334,8 +3745,8 @@
       </c>
     </row>
     <row r="90" spans="1:10">
-      <c r="A90" s="19"/>
-      <c r="B90" s="20"/>
+      <c r="A90" s="34"/>
+      <c r="B90" s="33"/>
       <c r="C90" s="3">
         <v>6</v>
       </c>
@@ -3360,8 +3771,8 @@
       </c>
     </row>
     <row r="91" spans="1:10">
-      <c r="A91" s="19"/>
-      <c r="B91" s="20"/>
+      <c r="A91" s="34"/>
+      <c r="B91" s="33"/>
       <c r="C91" s="3"/>
       <c r="D91" s="3"/>
       <c r="E91" s="3"/>
@@ -3372,8 +3783,8 @@
       <c r="J91" s="3"/>
     </row>
     <row r="92" spans="1:10">
-      <c r="A92" s="19"/>
-      <c r="B92" s="20"/>
+      <c r="A92" s="34"/>
+      <c r="B92" s="33"/>
       <c r="C92" s="15"/>
       <c r="D92" s="15" t="s">
         <v>60</v>
@@ -3394,8 +3805,8 @@
       </c>
     </row>
     <row r="93" spans="1:10">
-      <c r="A93" s="19"/>
-      <c r="B93" s="20"/>
+      <c r="A93" s="34"/>
+      <c r="B93" s="33"/>
       <c r="C93" s="3"/>
       <c r="D93" s="3" t="s">
         <v>114</v>
@@ -3418,8 +3829,8 @@
       </c>
     </row>
     <row r="94" spans="1:10">
-      <c r="A94" s="19"/>
-      <c r="B94" s="20"/>
+      <c r="A94" s="34"/>
+      <c r="B94" s="33"/>
       <c r="C94" s="3"/>
       <c r="D94" s="3" t="s">
         <v>115</v>
@@ -3442,8 +3853,8 @@
       </c>
     </row>
     <row r="95" spans="1:10">
-      <c r="A95" s="19"/>
-      <c r="B95" s="20"/>
+      <c r="A95" s="34"/>
+      <c r="B95" s="33"/>
       <c r="C95" s="3"/>
       <c r="D95" s="3" t="s">
         <v>121</v>
@@ -3466,8 +3877,8 @@
       </c>
     </row>
     <row r="96" spans="1:10">
-      <c r="A96" s="19"/>
-      <c r="B96" s="20"/>
+      <c r="A96" s="34"/>
+      <c r="B96" s="33"/>
       <c r="C96" s="3"/>
       <c r="D96" s="3" t="s">
         <v>122</v>
@@ -3496,22 +3907,22 @@
       <c r="B97" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="C97" s="27" t="s">
+      <c r="C97" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="D97" s="27"/>
-      <c r="E97" s="27"/>
-      <c r="F97" s="27"/>
-      <c r="G97" s="27"/>
-      <c r="H97" s="27"/>
-      <c r="I97" s="27"/>
-      <c r="J97" s="27"/>
+      <c r="D97" s="32"/>
+      <c r="E97" s="32"/>
+      <c r="F97" s="32"/>
+      <c r="G97" s="32"/>
+      <c r="H97" s="32"/>
+      <c r="I97" s="32"/>
+      <c r="J97" s="32"/>
     </row>
     <row r="98" spans="1:10">
-      <c r="A98" s="19">
+      <c r="A98" s="34">
         <v>10</v>
       </c>
-      <c r="B98" s="20" t="s">
+      <c r="B98" s="33" t="s">
         <v>140</v>
       </c>
       <c r="C98" s="3">
@@ -3536,8 +3947,8 @@
       </c>
     </row>
     <row r="99" spans="1:10">
-      <c r="A99" s="19"/>
-      <c r="B99" s="20"/>
+      <c r="A99" s="34"/>
+      <c r="B99" s="33"/>
       <c r="C99" s="3">
         <v>2</v>
       </c>
@@ -3560,8 +3971,8 @@
       </c>
     </row>
     <row r="100" spans="1:10">
-      <c r="A100" s="19"/>
-      <c r="B100" s="20"/>
+      <c r="A100" s="34"/>
+      <c r="B100" s="33"/>
       <c r="C100" s="3">
         <v>3</v>
       </c>
@@ -3586,8 +3997,8 @@
       </c>
     </row>
     <row r="101" spans="1:10">
-      <c r="A101" s="19"/>
-      <c r="B101" s="20"/>
+      <c r="A101" s="34"/>
+      <c r="B101" s="33"/>
       <c r="C101" s="3">
         <v>4</v>
       </c>
@@ -3612,8 +4023,8 @@
       </c>
     </row>
     <row r="102" spans="1:10">
-      <c r="A102" s="19"/>
-      <c r="B102" s="20"/>
+      <c r="A102" s="34"/>
+      <c r="B102" s="33"/>
       <c r="C102" s="3">
         <v>5</v>
       </c>
@@ -3638,8 +4049,8 @@
       </c>
     </row>
     <row r="103" spans="1:10">
-      <c r="A103" s="19"/>
-      <c r="B103" s="20"/>
+      <c r="A103" s="34"/>
+      <c r="B103" s="33"/>
       <c r="C103" s="3">
         <v>6</v>
       </c>
@@ -3664,8 +4075,8 @@
       </c>
     </row>
     <row r="104" spans="1:10">
-      <c r="A104" s="19"/>
-      <c r="B104" s="20"/>
+      <c r="A104" s="34"/>
+      <c r="B104" s="33"/>
       <c r="C104" s="3"/>
       <c r="D104" s="3"/>
       <c r="E104" s="3"/>
@@ -3676,8 +4087,8 @@
       <c r="J104" s="3"/>
     </row>
     <row r="105" spans="1:10">
-      <c r="A105" s="19"/>
-      <c r="B105" s="20"/>
+      <c r="A105" s="34"/>
+      <c r="B105" s="33"/>
       <c r="C105" s="3"/>
       <c r="D105" s="3" t="s">
         <v>126</v>
@@ -3700,8 +4111,8 @@
       </c>
     </row>
     <row r="106" spans="1:10">
-      <c r="A106" s="19"/>
-      <c r="B106" s="20"/>
+      <c r="A106" s="34"/>
+      <c r="B106" s="33"/>
       <c r="C106" s="3"/>
       <c r="D106" s="3" t="s">
         <v>114</v>
@@ -3724,8 +4135,8 @@
       </c>
     </row>
     <row r="107" spans="1:10">
-      <c r="A107" s="19"/>
-      <c r="B107" s="20"/>
+      <c r="A107" s="34"/>
+      <c r="B107" s="33"/>
       <c r="C107" s="3"/>
       <c r="D107" s="3" t="s">
         <v>115</v>
@@ -3748,8 +4159,8 @@
       </c>
     </row>
     <row r="108" spans="1:10">
-      <c r="A108" s="19"/>
-      <c r="B108" s="20"/>
+      <c r="A108" s="34"/>
+      <c r="B108" s="33"/>
       <c r="C108" s="3"/>
       <c r="D108" s="3" t="s">
         <v>121</v>
@@ -3772,8 +4183,8 @@
       </c>
     </row>
     <row r="109" spans="1:10">
-      <c r="A109" s="19"/>
-      <c r="B109" s="20"/>
+      <c r="A109" s="34"/>
+      <c r="B109" s="33"/>
       <c r="C109" s="3"/>
       <c r="D109" s="3" t="s">
         <v>122</v>
@@ -3802,22 +4213,22 @@
       <c r="B110" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="C110" s="27" t="s">
+      <c r="C110" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="D110" s="27"/>
-      <c r="E110" s="27"/>
-      <c r="F110" s="27"/>
-      <c r="G110" s="27"/>
-      <c r="H110" s="27"/>
-      <c r="I110" s="27"/>
-      <c r="J110" s="27"/>
+      <c r="D110" s="32"/>
+      <c r="E110" s="32"/>
+      <c r="F110" s="32"/>
+      <c r="G110" s="32"/>
+      <c r="H110" s="32"/>
+      <c r="I110" s="32"/>
+      <c r="J110" s="32"/>
     </row>
     <row r="111" spans="1:10">
-      <c r="A111" s="19">
+      <c r="A111" s="34">
         <v>12</v>
       </c>
-      <c r="B111" s="20" t="s">
+      <c r="B111" s="33" t="s">
         <v>127</v>
       </c>
       <c r="C111" s="3">
@@ -3844,8 +4255,8 @@
       </c>
     </row>
     <row r="112" spans="1:10">
-      <c r="A112" s="19"/>
-      <c r="B112" s="20"/>
+      <c r="A112" s="34"/>
+      <c r="B112" s="33"/>
       <c r="C112" s="3">
         <v>2</v>
       </c>
@@ -3870,8 +4281,8 @@
       </c>
     </row>
     <row r="113" spans="1:10">
-      <c r="A113" s="19"/>
-      <c r="B113" s="20"/>
+      <c r="A113" s="34"/>
+      <c r="B113" s="33"/>
       <c r="C113" s="3">
         <v>3</v>
       </c>
@@ -3896,8 +4307,8 @@
       </c>
     </row>
     <row r="114" spans="1:10">
-      <c r="A114" s="19"/>
-      <c r="B114" s="20"/>
+      <c r="A114" s="34"/>
+      <c r="B114" s="33"/>
       <c r="C114" s="3">
         <v>4</v>
       </c>
@@ -3920,8 +4331,8 @@
       </c>
     </row>
     <row r="115" spans="1:10">
-      <c r="A115" s="19"/>
-      <c r="B115" s="20"/>
+      <c r="A115" s="34"/>
+      <c r="B115" s="33"/>
       <c r="C115" s="3">
         <v>5</v>
       </c>
@@ -3946,8 +4357,8 @@
       </c>
     </row>
     <row r="116" spans="1:10">
-      <c r="A116" s="19"/>
-      <c r="B116" s="20"/>
+      <c r="A116" s="34"/>
+      <c r="B116" s="33"/>
       <c r="C116" s="3"/>
       <c r="D116" s="3"/>
       <c r="E116" s="3"/>
@@ -3958,8 +4369,8 @@
       <c r="J116" s="3"/>
     </row>
     <row r="117" spans="1:10">
-      <c r="A117" s="19"/>
-      <c r="B117" s="20"/>
+      <c r="A117" s="34"/>
+      <c r="B117" s="33"/>
       <c r="C117" s="3"/>
       <c r="D117" s="3" t="s">
         <v>114</v>
@@ -3982,8 +4393,8 @@
       </c>
     </row>
     <row r="118" spans="1:10">
-      <c r="A118" s="19"/>
-      <c r="B118" s="20"/>
+      <c r="A118" s="34"/>
+      <c r="B118" s="33"/>
       <c r="C118" s="3"/>
       <c r="D118" s="3" t="s">
         <v>115</v>
@@ -4006,8 +4417,8 @@
       </c>
     </row>
     <row r="119" spans="1:10">
-      <c r="A119" s="19"/>
-      <c r="B119" s="20"/>
+      <c r="A119" s="34"/>
+      <c r="B119" s="33"/>
       <c r="C119" s="3"/>
       <c r="D119" s="3" t="s">
         <v>121</v>
@@ -4030,8 +4441,8 @@
       </c>
     </row>
     <row r="120" spans="1:10">
-      <c r="A120" s="19"/>
-      <c r="B120" s="20"/>
+      <c r="A120" s="34"/>
+      <c r="B120" s="33"/>
       <c r="C120" s="3"/>
       <c r="D120" s="3" t="s">
         <v>122</v>
@@ -4053,15 +4464,242 @@
         <v>45</v>
       </c>
     </row>
+    <row r="123" spans="1:10">
+      <c r="A123" s="34">
+        <v>5</v>
+      </c>
+      <c r="B123" s="33" t="s">
+        <v>177</v>
+      </c>
+      <c r="C123" s="3">
+        <v>1</v>
+      </c>
+      <c r="D123" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E123" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F123" s="3"/>
+      <c r="G123" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H123" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="I123" s="3"/>
+      <c r="J123" s="3"/>
+    </row>
+    <row r="124" spans="1:10">
+      <c r="A124" s="34"/>
+      <c r="B124" s="33"/>
+      <c r="C124" s="3">
+        <v>2</v>
+      </c>
+      <c r="D124" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E124" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F124" s="3"/>
+      <c r="G124" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="H124" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="I124" s="3"/>
+      <c r="J124" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10">
+      <c r="A125" s="34"/>
+      <c r="B125" s="33"/>
+      <c r="C125" s="3">
+        <v>3</v>
+      </c>
+      <c r="D125" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E125" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F125" s="3"/>
+      <c r="G125" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="H125" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="I125" s="3"/>
+      <c r="J125" s="4" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10">
+      <c r="A126" s="34"/>
+      <c r="B126" s="33"/>
+      <c r="C126" s="3">
+        <v>7</v>
+      </c>
+      <c r="D126" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="E126" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F126" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G126" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="H126" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="I126" s="3"/>
+      <c r="J126" s="4" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10">
+      <c r="A127" s="34"/>
+      <c r="B127" s="33"/>
+      <c r="C127" s="3"/>
+      <c r="D127" s="3"/>
+      <c r="E127" s="3"/>
+      <c r="F127" s="3"/>
+      <c r="G127" s="19"/>
+      <c r="H127" s="19"/>
+      <c r="I127" s="3"/>
+      <c r="J127" s="3"/>
+    </row>
+    <row r="128" spans="1:10">
+      <c r="A128" s="34"/>
+      <c r="B128" s="33"/>
+      <c r="C128" s="3"/>
+      <c r="D128" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E128" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F128" s="3"/>
+      <c r="G128" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="H128" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="I128" s="3">
+        <v>0</v>
+      </c>
+      <c r="J128" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10">
+      <c r="A129" s="34"/>
+      <c r="B129" s="33"/>
+      <c r="C129" s="3"/>
+      <c r="D129" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E129" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F129" s="3">
+        <v>50</v>
+      </c>
+      <c r="G129" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="H129" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="I129" s="3"/>
+      <c r="J129" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10">
+      <c r="A130" s="34"/>
+      <c r="B130" s="33"/>
+      <c r="C130" s="3"/>
+      <c r="D130" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E130" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F130" s="3"/>
+      <c r="G130" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="H130" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="I130" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J130" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10">
+      <c r="A131" s="34"/>
+      <c r="B131" s="33"/>
+      <c r="C131" s="3"/>
+      <c r="D131" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E131" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F131" s="3">
+        <v>50</v>
+      </c>
+      <c r="G131" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="H131" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="I131" s="3"/>
+      <c r="J131" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10">
+      <c r="A132" s="34"/>
+      <c r="B132" s="33"/>
+      <c r="C132" s="3"/>
+      <c r="D132" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E132" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F132" s="3"/>
+      <c r="G132" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="H132" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="I132" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J132" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="23">
-    <mergeCell ref="A98:A109"/>
-    <mergeCell ref="C110:J110"/>
-    <mergeCell ref="B72:B83"/>
-    <mergeCell ref="A72:A83"/>
-    <mergeCell ref="C84:J84"/>
-    <mergeCell ref="B85:B96"/>
-    <mergeCell ref="A85:A96"/>
+  <mergeCells count="25">
+    <mergeCell ref="A123:A132"/>
+    <mergeCell ref="B123:B132"/>
     <mergeCell ref="A111:A120"/>
     <mergeCell ref="B111:B120"/>
     <mergeCell ref="C1:J1"/>
@@ -4078,6 +4716,13 @@
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C97:J97"/>
     <mergeCell ref="B98:B109"/>
+    <mergeCell ref="A98:A109"/>
+    <mergeCell ref="C110:J110"/>
+    <mergeCell ref="B72:B83"/>
+    <mergeCell ref="A72:A83"/>
+    <mergeCell ref="C84:J84"/>
+    <mergeCell ref="B85:B96"/>
+    <mergeCell ref="A85:A96"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4088,19 +4733,19 @@
           <x14:formula1>
             <xm:f>REF!$A$2:$A$7</xm:f>
           </x14:formula1>
-          <xm:sqref>E3:E9 E111:E1048576 E85:E96 E98:E109 E11:E83</xm:sqref>
+          <xm:sqref>E3:E9 E11:E83 E85:E96 E98:E109 E111:E1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>REF!$B$2:$B$3</xm:f>
           </x14:formula1>
-          <xm:sqref>G3:G9 G98:G109 G85:G96 G111:G1048576 G11:G83</xm:sqref>
+          <xm:sqref>G3:G9 G98:G109 G85:G96 G11:G83 G111:G1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>REF!$C$2:$C$3</xm:f>
           </x14:formula1>
-          <xm:sqref>H3:H9 H98:H109 H85:H96 H111:H1048576 H11:H83</xm:sqref>
+          <xm:sqref>H3:H9 H98:H109 H85:H96 H11:H83 H111:H1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -4125,19 +4770,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="39" t="s">
         <v>102</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="21" t="s">
+      <c r="B1" s="40"/>
+      <c r="C1" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="13" t="s">
@@ -4169,10 +4814,10 @@
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="23">
+      <c r="A3" s="37">
         <v>1</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="38" t="s">
         <v>103</v>
       </c>
       <c r="C3" s="3">
@@ -4194,8 +4839,8 @@
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="23"/>
-      <c r="B4" s="24"/>
+      <c r="A4" s="37"/>
+      <c r="B4" s="38"/>
       <c r="C4" s="3">
         <v>2</v>
       </c>
@@ -4215,8 +4860,8 @@
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="23"/>
-      <c r="B5" s="24"/>
+      <c r="A5" s="37"/>
+      <c r="B5" s="38"/>
       <c r="C5" s="3">
         <v>3</v>
       </c>
@@ -4236,8 +4881,8 @@
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="23"/>
-      <c r="B6" s="24"/>
+      <c r="A6" s="37"/>
+      <c r="B6" s="38"/>
       <c r="C6" s="3">
         <v>4</v>
       </c>
@@ -4259,8 +4904,8 @@
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="23"/>
-      <c r="B7" s="24"/>
+      <c r="A7" s="37"/>
+      <c r="B7" s="38"/>
       <c r="C7" s="3">
         <v>5</v>
       </c>
@@ -4280,8 +4925,8 @@
       </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="23"/>
-      <c r="B8" s="24"/>
+      <c r="A8" s="37"/>
+      <c r="B8" s="38"/>
       <c r="C8" s="3">
         <v>6</v>
       </c>
@@ -4301,8 +4946,8 @@
       </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="23"/>
-      <c r="B9" s="24"/>
+      <c r="A9" s="37"/>
+      <c r="B9" s="38"/>
       <c r="C9" s="3">
         <v>7</v>
       </c>
@@ -4322,8 +4967,8 @@
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="23"/>
-      <c r="B10" s="24"/>
+      <c r="A10" s="37"/>
+      <c r="B10" s="38"/>
       <c r="C10" s="3">
         <v>8</v>
       </c>
@@ -4343,8 +4988,8 @@
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="23"/>
-      <c r="B11" s="24"/>
+      <c r="A11" s="37"/>
+      <c r="B11" s="38"/>
       <c r="C11" s="3">
         <v>9</v>
       </c>
@@ -4366,8 +5011,8 @@
       </c>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="23"/>
-      <c r="B12" s="24"/>
+      <c r="A12" s="37"/>
+      <c r="B12" s="38"/>
       <c r="C12" s="3">
         <v>10</v>
       </c>
@@ -4389,8 +5034,8 @@
       </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="23"/>
-      <c r="B13" s="24"/>
+      <c r="A13" s="37"/>
+      <c r="B13" s="38"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
@@ -4400,8 +5045,8 @@
       <c r="I13" s="3"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="23"/>
-      <c r="B14" s="24"/>
+      <c r="A14" s="37"/>
+      <c r="B14" s="38"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3" t="s">
         <v>38</v>
@@ -4421,8 +5066,8 @@
       </c>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="23"/>
-      <c r="B15" s="24"/>
+      <c r="A15" s="37"/>
+      <c r="B15" s="38"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3" t="s">
         <v>39</v>
@@ -4475,4 +5120,2857 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J121"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C25" workbookViewId="0">
+      <selection activeCell="J36" sqref="J36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.875" customWidth="1"/>
+    <col min="3" max="3" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.625" customWidth="1"/>
+    <col min="5" max="5" width="9.75" customWidth="1"/>
+    <col min="6" max="6" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="4.75" customWidth="1"/>
+    <col min="9" max="9" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="58.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="40"/>
+      <c r="C1" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" s="29" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="37">
+        <v>0</v>
+      </c>
+      <c r="B3" s="38" t="s">
+        <v>270</v>
+      </c>
+      <c r="C3" s="3">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="3"/>
+      <c r="G3" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="37"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="3">
+        <v>2</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="3"/>
+      <c r="G4" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="37"/>
+      <c r="B5" s="38"/>
+      <c r="C5" s="3">
+        <v>3</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="3"/>
+      <c r="G5" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="37"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="3">
+        <v>4</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="3">
+        <v>30</v>
+      </c>
+      <c r="G6" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="37"/>
+      <c r="B7" s="38"/>
+      <c r="C7" s="3">
+        <v>5</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="3"/>
+      <c r="G7" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="37"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="3">
+        <v>6</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="G8" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="37"/>
+      <c r="B9" s="38"/>
+      <c r="C9" s="3">
+        <v>7</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="G9" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="37"/>
+      <c r="B10" s="38"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="37"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" s="3">
+        <v>255</v>
+      </c>
+      <c r="G11" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="37"/>
+      <c r="B12" s="38"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="3"/>
+      <c r="G12" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="H12" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="34">
+        <v>1</v>
+      </c>
+      <c r="B13" s="33" t="s">
+        <v>224</v>
+      </c>
+      <c r="C13" s="3">
+        <v>1</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="34"/>
+      <c r="B14" s="33"/>
+      <c r="C14" s="3">
+        <v>2</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" s="3">
+        <v>100</v>
+      </c>
+      <c r="G14" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="H14" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="34"/>
+      <c r="B15" s="33"/>
+      <c r="C15" s="3">
+        <v>3</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F15" s="3">
+        <v>100</v>
+      </c>
+      <c r="G15" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="H15" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="34"/>
+      <c r="B16" s="33"/>
+      <c r="C16" s="3">
+        <v>4</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="G16" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="H16" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="34"/>
+      <c r="B17" s="33"/>
+      <c r="C17" s="3">
+        <v>5</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" s="3"/>
+      <c r="G17" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="H17" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="34"/>
+      <c r="B18" s="33"/>
+      <c r="C18" s="3">
+        <v>6</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="3"/>
+      <c r="G18" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="H18" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="34"/>
+      <c r="B19" s="33"/>
+      <c r="C19" s="3">
+        <v>7</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="3"/>
+      <c r="G19" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="H19" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="34"/>
+      <c r="B20" s="33"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="34"/>
+      <c r="B21" s="33"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F21" s="3"/>
+      <c r="G21" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="H21" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="I21" s="3">
+        <v>0</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="34"/>
+      <c r="B22" s="33"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F22" s="3">
+        <v>255</v>
+      </c>
+      <c r="G22" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="H22" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="34"/>
+      <c r="B23" s="33"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F23" s="3"/>
+      <c r="G23" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="H23" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="34"/>
+      <c r="B24" s="33"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F24" s="3">
+        <v>255</v>
+      </c>
+      <c r="G24" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="H24" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="34"/>
+      <c r="B25" s="33"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F25" s="3"/>
+      <c r="G25" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="H25" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="34">
+        <v>2</v>
+      </c>
+      <c r="B26" s="33" t="s">
+        <v>225</v>
+      </c>
+      <c r="C26" s="3">
+        <v>1</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26" s="3"/>
+      <c r="G26" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="H26" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="34"/>
+      <c r="B27" s="33"/>
+      <c r="C27" s="3">
+        <v>2</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F27" s="3"/>
+      <c r="G27" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="H27" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="34"/>
+      <c r="B28" s="33"/>
+      <c r="C28" s="3">
+        <v>3</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F28" s="3">
+        <v>100</v>
+      </c>
+      <c r="G28" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="H28" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="34"/>
+      <c r="B29" s="33"/>
+      <c r="C29" s="3">
+        <v>4</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F29" s="3">
+        <v>100</v>
+      </c>
+      <c r="G29" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="H29" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="34"/>
+      <c r="B30" s="33"/>
+      <c r="C30" s="3">
+        <v>5</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="G30" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="H30" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="34"/>
+      <c r="B31" s="33"/>
+      <c r="C31" s="3">
+        <v>6</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F31" s="3"/>
+      <c r="G31" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="H31" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" s="34"/>
+      <c r="B32" s="33"/>
+      <c r="C32" s="3">
+        <v>7</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F32" s="3"/>
+      <c r="G32" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="H32" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" s="34"/>
+      <c r="B33" s="33"/>
+      <c r="C33" s="3">
+        <v>8</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F33" s="3"/>
+      <c r="G33" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="H33" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="I33" s="3">
+        <v>0</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" s="34"/>
+      <c r="B34" s="33"/>
+      <c r="C34" s="3">
+        <v>9</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F34" s="3"/>
+      <c r="G34" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="H34" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="I34" s="3">
+        <v>0</v>
+      </c>
+      <c r="J34" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" s="34"/>
+      <c r="B35" s="33"/>
+      <c r="C35" s="3">
+        <v>10</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F35" s="3"/>
+      <c r="G35" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="H35" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="I35" s="3">
+        <v>0</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" s="34"/>
+      <c r="B36" s="33"/>
+      <c r="C36" s="3">
+        <v>11</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F36" s="3"/>
+      <c r="G36" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="H36" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" s="34"/>
+      <c r="B37" s="33"/>
+      <c r="C37" s="3">
+        <v>12</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F37" s="3"/>
+      <c r="G37" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="H37" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" s="34"/>
+      <c r="B38" s="33"/>
+      <c r="C38" s="3">
+        <v>13</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F38" s="3"/>
+      <c r="G38" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="H38" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="I38" s="3"/>
+      <c r="J38" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" s="34"/>
+      <c r="B39" s="33"/>
+      <c r="C39" s="3">
+        <v>14</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F39" s="3"/>
+      <c r="G39" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="H39" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="I39" s="3"/>
+      <c r="J39" s="3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" s="34"/>
+      <c r="B40" s="33"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="27"/>
+      <c r="H40" s="27"/>
+      <c r="I40" s="3"/>
+      <c r="J40" s="3"/>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" s="34"/>
+      <c r="B41" s="33"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F41" s="3"/>
+      <c r="G41" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="H41" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="I41" s="3">
+        <v>0</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42" s="34"/>
+      <c r="B42" s="33"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F42" s="3">
+        <v>255</v>
+      </c>
+      <c r="G42" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="H42" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="I42" s="3"/>
+      <c r="J42" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43" s="34"/>
+      <c r="B43" s="33"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F43" s="3"/>
+      <c r="G43" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="H43" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44" s="34"/>
+      <c r="B44" s="33"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F44" s="3">
+        <v>255</v>
+      </c>
+      <c r="G44" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="H44" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="I44" s="3"/>
+      <c r="J44" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45" s="34"/>
+      <c r="B45" s="33"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F45" s="3"/>
+      <c r="G45" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="H45" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="A46" s="34">
+        <v>3</v>
+      </c>
+      <c r="B46" s="33" t="s">
+        <v>250</v>
+      </c>
+      <c r="C46" s="3">
+        <v>1</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F46" s="3"/>
+      <c r="G46" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="H46" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="I46" s="3"/>
+      <c r="J46" s="3"/>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="A47" s="34"/>
+      <c r="B47" s="33"/>
+      <c r="C47" s="3">
+        <v>2</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F47" s="3"/>
+      <c r="G47" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="H47" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="I47" s="3"/>
+      <c r="J47" s="3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="A48" s="34"/>
+      <c r="B48" s="33"/>
+      <c r="C48" s="3">
+        <v>3</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F48" s="3">
+        <v>100</v>
+      </c>
+      <c r="G48" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="H48" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="I48" s="3"/>
+      <c r="J48" s="3"/>
+    </row>
+    <row r="49" spans="1:10">
+      <c r="A49" s="34"/>
+      <c r="B49" s="33"/>
+      <c r="C49" s="3">
+        <v>4</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F49" s="3">
+        <v>100</v>
+      </c>
+      <c r="G49" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="H49" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="I49" s="3"/>
+      <c r="J49" s="3"/>
+    </row>
+    <row r="50" spans="1:10">
+      <c r="A50" s="34"/>
+      <c r="B50" s="33"/>
+      <c r="C50" s="3">
+        <v>5</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="G50" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="H50" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="I50" s="3"/>
+      <c r="J50" s="3"/>
+    </row>
+    <row r="51" spans="1:10">
+      <c r="A51" s="34"/>
+      <c r="B51" s="33"/>
+      <c r="C51" s="3">
+        <v>6</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F51" s="3"/>
+      <c r="G51" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="H51" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="I51" s="3"/>
+      <c r="J51" s="4" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
+      <c r="A52" s="34"/>
+      <c r="B52" s="33"/>
+      <c r="C52" s="3">
+        <v>7</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F52" s="3"/>
+      <c r="G52" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="H52" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="I52" s="3">
+        <v>0</v>
+      </c>
+      <c r="J52" s="4" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
+      <c r="A53" s="34"/>
+      <c r="B53" s="33"/>
+      <c r="C53" s="3">
+        <v>8</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="G53" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="H53" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="I53" s="3"/>
+      <c r="J53" s="4" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
+      <c r="A54" s="34"/>
+      <c r="B54" s="33"/>
+      <c r="C54" s="3"/>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3"/>
+      <c r="F54" s="3"/>
+      <c r="G54" s="27"/>
+      <c r="H54" s="27"/>
+      <c r="I54" s="3"/>
+      <c r="J54" s="3"/>
+    </row>
+    <row r="55" spans="1:10">
+      <c r="A55" s="34"/>
+      <c r="B55" s="33"/>
+      <c r="C55" s="3"/>
+      <c r="D55" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F55" s="3"/>
+      <c r="G55" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="H55" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="I55" s="3">
+        <v>0</v>
+      </c>
+      <c r="J55" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
+      <c r="A56" s="34"/>
+      <c r="B56" s="33"/>
+      <c r="C56" s="3"/>
+      <c r="D56" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F56" s="3">
+        <v>255</v>
+      </c>
+      <c r="G56" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="H56" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="I56" s="3"/>
+      <c r="J56" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
+      <c r="A57" s="34"/>
+      <c r="B57" s="33"/>
+      <c r="C57" s="3"/>
+      <c r="D57" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F57" s="3"/>
+      <c r="G57" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="H57" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
+      <c r="A58" s="34"/>
+      <c r="B58" s="33"/>
+      <c r="C58" s="3"/>
+      <c r="D58" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F58" s="3">
+        <v>255</v>
+      </c>
+      <c r="G58" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="H58" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="I58" s="3"/>
+      <c r="J58" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
+      <c r="A59" s="34"/>
+      <c r="B59" s="33"/>
+      <c r="C59" s="3"/>
+      <c r="D59" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F59" s="3"/>
+      <c r="G59" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="H59" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
+      <c r="A60" s="34">
+        <v>4</v>
+      </c>
+      <c r="B60" s="33" t="s">
+        <v>255</v>
+      </c>
+      <c r="C60" s="3">
+        <v>1</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F60" s="3"/>
+      <c r="G60" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="H60" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="I60" s="3"/>
+      <c r="J60" s="3"/>
+    </row>
+    <row r="61" spans="1:10">
+      <c r="A61" s="34"/>
+      <c r="B61" s="33"/>
+      <c r="C61" s="3">
+        <v>2</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F61" s="3"/>
+      <c r="G61" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="H61" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="I61" s="3"/>
+      <c r="J61" s="3" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
+      <c r="A62" s="34"/>
+      <c r="B62" s="33"/>
+      <c r="C62" s="3">
+        <v>3</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F62" s="3">
+        <v>100</v>
+      </c>
+      <c r="G62" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="H62" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="I62" s="3"/>
+      <c r="J62" s="3"/>
+    </row>
+    <row r="63" spans="1:10">
+      <c r="A63" s="34"/>
+      <c r="B63" s="33"/>
+      <c r="C63" s="4">
+        <v>4</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F63" s="3">
+        <v>100</v>
+      </c>
+      <c r="G63" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="H63" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="I63" s="3"/>
+      <c r="J63" s="3"/>
+    </row>
+    <row r="64" spans="1:10">
+      <c r="A64" s="34"/>
+      <c r="B64" s="33"/>
+      <c r="C64" s="4">
+        <v>5</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="G64" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="H64" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="I64" s="3"/>
+      <c r="J64" s="3"/>
+    </row>
+    <row r="65" spans="1:10">
+      <c r="A65" s="34"/>
+      <c r="B65" s="33"/>
+      <c r="C65" s="4">
+        <v>6</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="G65" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="H65" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="I65" s="3"/>
+      <c r="J65" s="4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
+      <c r="A66" s="34"/>
+      <c r="B66" s="33"/>
+      <c r="C66" s="3"/>
+      <c r="D66" s="3"/>
+      <c r="E66" s="3"/>
+      <c r="F66" s="3"/>
+      <c r="G66" s="27"/>
+      <c r="H66" s="27"/>
+      <c r="I66" s="3"/>
+      <c r="J66" s="3"/>
+    </row>
+    <row r="67" spans="1:10">
+      <c r="A67" s="34"/>
+      <c r="B67" s="33"/>
+      <c r="C67" s="3"/>
+      <c r="D67" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F67" s="3"/>
+      <c r="G67" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="H67" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="I67" s="3">
+        <v>0</v>
+      </c>
+      <c r="J67" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
+      <c r="A68" s="34"/>
+      <c r="B68" s="33"/>
+      <c r="C68" s="3"/>
+      <c r="D68" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F68" s="3">
+        <v>255</v>
+      </c>
+      <c r="G68" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="H68" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="I68" s="3"/>
+      <c r="J68" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
+      <c r="A69" s="34"/>
+      <c r="B69" s="33"/>
+      <c r="C69" s="3"/>
+      <c r="D69" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F69" s="3"/>
+      <c r="G69" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="H69" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="I69" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J69" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
+      <c r="A70" s="34"/>
+      <c r="B70" s="33"/>
+      <c r="C70" s="3"/>
+      <c r="D70" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F70" s="3">
+        <v>255</v>
+      </c>
+      <c r="G70" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="H70" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="I70" s="3"/>
+      <c r="J70" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
+      <c r="A71" s="34"/>
+      <c r="B71" s="33"/>
+      <c r="C71" s="3"/>
+      <c r="D71" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F71" s="3"/>
+      <c r="G71" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="H71" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="I71" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J71" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
+      <c r="A72" s="34">
+        <v>5</v>
+      </c>
+      <c r="B72" s="33" t="s">
+        <v>258</v>
+      </c>
+      <c r="C72" s="3">
+        <v>1</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F72" s="3"/>
+      <c r="G72" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="H72" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="I72" s="3"/>
+      <c r="J72" s="3"/>
+    </row>
+    <row r="73" spans="1:10">
+      <c r="A73" s="34"/>
+      <c r="B73" s="33"/>
+      <c r="C73" s="3">
+        <v>2</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F73" s="3"/>
+      <c r="G73" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="H73" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="I73" s="3"/>
+      <c r="J73" s="3" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
+      <c r="A74" s="34"/>
+      <c r="B74" s="33"/>
+      <c r="C74" s="3">
+        <v>3</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F74" s="3"/>
+      <c r="G74" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="H74" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="I74" s="3"/>
+      <c r="J74" s="3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
+      <c r="A75" s="34"/>
+      <c r="B75" s="33"/>
+      <c r="C75" s="3">
+        <v>4</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F75" s="3"/>
+      <c r="G75" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="H75" s="27" t="s">
+        <v>231</v>
+      </c>
+      <c r="I75" s="3"/>
+      <c r="J75" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
+      <c r="A76" s="34"/>
+      <c r="B76" s="33"/>
+      <c r="C76" s="3"/>
+      <c r="D76" s="3"/>
+      <c r="E76" s="3"/>
+      <c r="F76" s="3"/>
+      <c r="G76" s="27"/>
+      <c r="H76" s="27"/>
+      <c r="I76" s="3"/>
+      <c r="J76" s="3"/>
+    </row>
+    <row r="77" spans="1:10">
+      <c r="A77" s="34"/>
+      <c r="B77" s="33"/>
+      <c r="C77" s="3"/>
+      <c r="D77" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F77" s="3"/>
+      <c r="G77" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="H77" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="I77" s="3">
+        <v>0</v>
+      </c>
+      <c r="J77" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
+      <c r="A78" s="34"/>
+      <c r="B78" s="33"/>
+      <c r="C78" s="3"/>
+      <c r="D78" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F78" s="3">
+        <v>255</v>
+      </c>
+      <c r="G78" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="H78" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="I78" s="3"/>
+      <c r="J78" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
+      <c r="A79" s="34"/>
+      <c r="B79" s="33"/>
+      <c r="C79" s="3"/>
+      <c r="D79" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F79" s="3"/>
+      <c r="G79" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="H79" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="I79" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J79" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
+      <c r="A80" s="34"/>
+      <c r="B80" s="33"/>
+      <c r="C80" s="3"/>
+      <c r="D80" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F80" s="3">
+        <v>255</v>
+      </c>
+      <c r="G80" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="H80" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="I80" s="3"/>
+      <c r="J80" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
+      <c r="A81" s="34"/>
+      <c r="B81" s="33"/>
+      <c r="C81" s="3"/>
+      <c r="D81" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F81" s="3"/>
+      <c r="G81" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="H81" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="I81" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J81" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
+      <c r="A84" s="34">
+        <v>6</v>
+      </c>
+      <c r="B84" s="33" t="s">
+        <v>259</v>
+      </c>
+      <c r="C84" s="3">
+        <v>1</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F84" s="3"/>
+      <c r="G84" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="H84" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="I84" s="3"/>
+      <c r="J84" s="3"/>
+    </row>
+    <row r="85" spans="1:10">
+      <c r="A85" s="34"/>
+      <c r="B85" s="33"/>
+      <c r="C85" s="3">
+        <v>2</v>
+      </c>
+      <c r="D85" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="E85" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F85" s="3"/>
+      <c r="G85" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="H85" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="I85" s="3"/>
+      <c r="J85" s="3" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
+      <c r="A86" s="34"/>
+      <c r="B86" s="33"/>
+      <c r="C86" s="3">
+        <v>3</v>
+      </c>
+      <c r="D86" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="E86" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F86" s="3">
+        <v>30</v>
+      </c>
+      <c r="G86" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="H86" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="I86" s="3"/>
+      <c r="J86" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
+      <c r="A87" s="34"/>
+      <c r="B87" s="33"/>
+      <c r="C87" s="3">
+        <v>4</v>
+      </c>
+      <c r="D87" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="E87" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F87" s="3"/>
+      <c r="G87" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="H87" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="I87" s="3">
+        <v>0</v>
+      </c>
+      <c r="J87" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
+      <c r="A88" s="34"/>
+      <c r="B88" s="33"/>
+      <c r="C88" s="3">
+        <v>5</v>
+      </c>
+      <c r="D88" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="E88" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F88" s="3">
+        <v>255</v>
+      </c>
+      <c r="G88" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="H88" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="I88" s="3"/>
+      <c r="J88" s="3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
+      <c r="A89" s="34"/>
+      <c r="B89" s="33"/>
+      <c r="C89" s="3"/>
+      <c r="D89" s="3"/>
+      <c r="E89" s="3"/>
+      <c r="F89" s="3"/>
+      <c r="G89" s="27"/>
+      <c r="H89" s="27"/>
+      <c r="I89" s="3"/>
+      <c r="J89" s="3"/>
+    </row>
+    <row r="90" spans="1:10">
+      <c r="A90" s="34"/>
+      <c r="B90" s="33"/>
+      <c r="C90" s="3"/>
+      <c r="D90" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="E90" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="F90" s="3"/>
+      <c r="G90" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="H90" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="I90" s="3">
+        <v>0</v>
+      </c>
+      <c r="J90" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
+      <c r="A91" s="34"/>
+      <c r="B91" s="33"/>
+      <c r="C91" s="3"/>
+      <c r="D91" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F91" s="3"/>
+      <c r="G91" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="H91" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="I91" s="3"/>
+      <c r="J91" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
+      <c r="A92" s="34"/>
+      <c r="B92" s="33"/>
+      <c r="C92" s="3"/>
+      <c r="D92" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="E92" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F92" s="3">
+        <v>255</v>
+      </c>
+      <c r="G92" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="H92" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="I92" s="3"/>
+      <c r="J92" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
+      <c r="A93" s="34"/>
+      <c r="B93" s="33"/>
+      <c r="C93" s="3"/>
+      <c r="D93" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="E93" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F93" s="3"/>
+      <c r="G93" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="H93" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="I93" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J93" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
+      <c r="A94" s="34"/>
+      <c r="B94" s="33"/>
+      <c r="C94" s="3"/>
+      <c r="D94" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F94" s="3">
+        <v>255</v>
+      </c>
+      <c r="G94" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="H94" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="I94" s="3"/>
+      <c r="J94" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
+      <c r="A95" s="34"/>
+      <c r="B95" s="33"/>
+      <c r="C95" s="3"/>
+      <c r="D95" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="E95" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F95" s="3"/>
+      <c r="G95" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="H95" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="I95" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J95" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
+      <c r="A96" s="27">
+        <v>7</v>
+      </c>
+      <c r="B96" s="28" t="s">
+        <v>202</v>
+      </c>
+      <c r="C96" s="32" t="s">
+        <v>204</v>
+      </c>
+      <c r="D96" s="32"/>
+      <c r="E96" s="32"/>
+      <c r="F96" s="32"/>
+      <c r="G96" s="32"/>
+      <c r="H96" s="32"/>
+      <c r="I96" s="32"/>
+      <c r="J96" s="32"/>
+    </row>
+    <row r="97" spans="1:10">
+      <c r="A97" s="34">
+        <v>8</v>
+      </c>
+      <c r="B97" s="33" t="s">
+        <v>266</v>
+      </c>
+      <c r="C97" s="3">
+        <v>1</v>
+      </c>
+      <c r="D97" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E97" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F97" s="3"/>
+      <c r="G97" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="H97" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="I97" s="3"/>
+      <c r="J97" s="3"/>
+    </row>
+    <row r="98" spans="1:10">
+      <c r="A98" s="34"/>
+      <c r="B98" s="33"/>
+      <c r="C98" s="3">
+        <v>2</v>
+      </c>
+      <c r="D98" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="E98" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F98" s="3"/>
+      <c r="G98" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="H98" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="I98" s="3"/>
+      <c r="J98" s="4" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
+      <c r="A99" s="34"/>
+      <c r="B99" s="33"/>
+      <c r="C99" s="3">
+        <v>3</v>
+      </c>
+      <c r="D99" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="E99" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F99" s="3"/>
+      <c r="G99" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="H99" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="I99" s="3"/>
+      <c r="J99" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
+      <c r="A100" s="34"/>
+      <c r="B100" s="33"/>
+      <c r="C100" s="3">
+        <v>4</v>
+      </c>
+      <c r="D100" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F100" s="3"/>
+      <c r="G100" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="H100" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="I100" s="3"/>
+      <c r="J100" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
+      <c r="A101" s="34"/>
+      <c r="B101" s="33"/>
+      <c r="C101" s="3">
+        <v>5</v>
+      </c>
+      <c r="D101" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F101" s="3"/>
+      <c r="G101" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="H101" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="I101" s="3"/>
+      <c r="J101" s="4" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
+      <c r="A102" s="34"/>
+      <c r="B102" s="33"/>
+      <c r="C102" s="3">
+        <v>6</v>
+      </c>
+      <c r="D102" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F102" s="3"/>
+      <c r="G102" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="H102" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
+      <c r="A103" s="34"/>
+      <c r="B103" s="33"/>
+      <c r="C103" s="3"/>
+      <c r="D103" s="3"/>
+      <c r="E103" s="3"/>
+      <c r="F103" s="3"/>
+      <c r="G103" s="27"/>
+      <c r="H103" s="27"/>
+      <c r="I103" s="3"/>
+      <c r="J103" s="3"/>
+    </row>
+    <row r="104" spans="1:10">
+      <c r="A104" s="34"/>
+      <c r="B104" s="33"/>
+      <c r="C104" s="3"/>
+      <c r="D104" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="E104" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F104" s="3">
+        <v>255</v>
+      </c>
+      <c r="G104" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="H104" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="I104" s="3"/>
+      <c r="J104" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
+      <c r="A105" s="34"/>
+      <c r="B105" s="33"/>
+      <c r="C105" s="3"/>
+      <c r="D105" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="E105" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F105" s="3"/>
+      <c r="G105" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="H105" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="I105" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J105" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
+      <c r="A106" s="34"/>
+      <c r="B106" s="33"/>
+      <c r="C106" s="3"/>
+      <c r="D106" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="E106" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F106" s="3">
+        <v>255</v>
+      </c>
+      <c r="G106" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="H106" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="I106" s="3"/>
+      <c r="J106" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10">
+      <c r="A107" s="34"/>
+      <c r="B107" s="33"/>
+      <c r="C107" s="3"/>
+      <c r="D107" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="E107" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F107" s="3"/>
+      <c r="G107" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="H107" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="I107" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J107" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
+      <c r="A108" s="27">
+        <v>9</v>
+      </c>
+      <c r="B108" s="28" t="s">
+        <v>203</v>
+      </c>
+      <c r="C108" s="32" t="s">
+        <v>205</v>
+      </c>
+      <c r="D108" s="32"/>
+      <c r="E108" s="32"/>
+      <c r="F108" s="32"/>
+      <c r="G108" s="32"/>
+      <c r="H108" s="32"/>
+      <c r="I108" s="32"/>
+      <c r="J108" s="32"/>
+    </row>
+    <row r="109" spans="1:10">
+      <c r="A109" s="34">
+        <v>10</v>
+      </c>
+      <c r="B109" s="33" t="s">
+        <v>268</v>
+      </c>
+      <c r="C109" s="3">
+        <v>1</v>
+      </c>
+      <c r="D109" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E109" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F109" s="3"/>
+      <c r="G109" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="H109" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="I109" s="3"/>
+      <c r="J109" s="3" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
+      <c r="A110" s="34"/>
+      <c r="B110" s="33"/>
+      <c r="C110" s="3">
+        <v>2</v>
+      </c>
+      <c r="D110" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="E110" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F110" s="3"/>
+      <c r="G110" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="H110" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="I110" s="3"/>
+      <c r="J110" s="4" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10">
+      <c r="A111" s="34"/>
+      <c r="B111" s="33"/>
+      <c r="C111" s="3">
+        <v>3</v>
+      </c>
+      <c r="D111" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="E111" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="F111" s="3">
+        <v>255</v>
+      </c>
+      <c r="G111" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="H111" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="I111" s="3"/>
+      <c r="J111" s="4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10">
+      <c r="A112" s="34"/>
+      <c r="B112" s="33"/>
+      <c r="C112" s="3">
+        <v>4</v>
+      </c>
+      <c r="D112" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E112" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F112" s="3"/>
+      <c r="G112" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="H112" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="I112" s="3">
+        <v>0</v>
+      </c>
+      <c r="J112" s="3" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10">
+      <c r="A113" s="34"/>
+      <c r="B113" s="33"/>
+      <c r="C113" s="3">
+        <v>5</v>
+      </c>
+      <c r="D113" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="E113" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F113" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="G113" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="H113" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="I113" s="3"/>
+      <c r="J113" s="3"/>
+    </row>
+    <row r="114" spans="1:10">
+      <c r="A114" s="34"/>
+      <c r="B114" s="33"/>
+      <c r="C114" s="3">
+        <v>6</v>
+      </c>
+      <c r="D114" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="E114" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F114" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="G114" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="H114" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="I114" s="3"/>
+      <c r="J114" s="3" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10">
+      <c r="A115" s="34"/>
+      <c r="B115" s="33"/>
+      <c r="C115" s="3"/>
+      <c r="D115" s="3"/>
+      <c r="E115" s="3"/>
+      <c r="F115" s="3"/>
+      <c r="G115" s="27"/>
+      <c r="H115" s="27"/>
+      <c r="I115" s="3"/>
+      <c r="J115" s="3"/>
+    </row>
+    <row r="116" spans="1:10">
+      <c r="A116" s="34"/>
+      <c r="B116" s="33"/>
+      <c r="C116" s="3"/>
+      <c r="D116" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="E116" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F116" s="3"/>
+      <c r="G116" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="H116" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="I116" s="3">
+        <v>1</v>
+      </c>
+      <c r="J116" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10">
+      <c r="A117" s="34"/>
+      <c r="B117" s="33"/>
+      <c r="C117" s="3"/>
+      <c r="D117" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="E117" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F117" s="3">
+        <v>255</v>
+      </c>
+      <c r="G117" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="H117" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="I117" s="3"/>
+      <c r="J117" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10">
+      <c r="A118" s="34"/>
+      <c r="B118" s="33"/>
+      <c r="C118" s="3"/>
+      <c r="D118" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="E118" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F118" s="3"/>
+      <c r="G118" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="H118" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="I118" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J118" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10">
+      <c r="A119" s="34"/>
+      <c r="B119" s="33"/>
+      <c r="C119" s="3"/>
+      <c r="D119" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="E119" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F119" s="3">
+        <v>255</v>
+      </c>
+      <c r="G119" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="H119" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="I119" s="3"/>
+      <c r="J119" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10">
+      <c r="A120" s="34"/>
+      <c r="B120" s="33"/>
+      <c r="C120" s="3"/>
+      <c r="D120" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="E120" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F120" s="3"/>
+      <c r="G120" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="H120" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="I120" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J120" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10">
+      <c r="A121" s="27">
+        <v>11</v>
+      </c>
+      <c r="B121" s="28" t="s">
+        <v>208</v>
+      </c>
+      <c r="C121" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="D121" s="32"/>
+      <c r="E121" s="32"/>
+      <c r="F121" s="32"/>
+      <c r="G121" s="32"/>
+      <c r="H121" s="32"/>
+      <c r="I121" s="32"/>
+      <c r="J121" s="32"/>
+    </row>
+  </sheetData>
+  <mergeCells count="23">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:J1"/>
+    <mergeCell ref="A13:A25"/>
+    <mergeCell ref="B13:B25"/>
+    <mergeCell ref="A26:A45"/>
+    <mergeCell ref="B26:B45"/>
+    <mergeCell ref="A3:A12"/>
+    <mergeCell ref="B3:B12"/>
+    <mergeCell ref="A46:A59"/>
+    <mergeCell ref="B46:B59"/>
+    <mergeCell ref="B60:B71"/>
+    <mergeCell ref="A60:A71"/>
+    <mergeCell ref="C108:J108"/>
+    <mergeCell ref="C96:J96"/>
+    <mergeCell ref="A97:A107"/>
+    <mergeCell ref="B97:B107"/>
+    <mergeCell ref="A72:A81"/>
+    <mergeCell ref="B72:B81"/>
+    <mergeCell ref="A109:A120"/>
+    <mergeCell ref="B109:B120"/>
+    <mergeCell ref="C121:J121"/>
+    <mergeCell ref="A84:A95"/>
+    <mergeCell ref="B84:B95"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>REF!$C$2:$C$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>H84:H95 H3:H9 H97:H107 H109:H120 H11:H81</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>REF!$B$2:$B$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>G84:G95 G3:G9 G97:G107 G109:G120 G11:G81</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>REF!$A$2:$A$7</xm:f>
+          </x14:formula1>
+          <xm:sqref>E84:E95 E3:E9 E97:E107 E109:E120 E11:E81</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
 </file>